--- a/DistanceMatrix.xlsx
+++ b/DistanceMatrix.xlsx
@@ -395,36 +395,36 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>224791</v>
+        <v>365626</v>
       </c>
       <c r="B2" t="n">
-        <v>35.661671</v>
+        <v>35.682298</v>
       </c>
       <c r="C2" t="n">
-        <v>50.976896</v>
+        <v>50.964995</v>
       </c>
       <c r="D2" t="n">
-        <v>1.80251149899189</v>
+        <v>1.379836036795883</v>
       </c>
       <c r="E2" t="n">
-        <v>471</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>387858</v>
+        <v>388721</v>
       </c>
       <c r="B3" t="n">
-        <v>35.660454</v>
+        <v>35.6872</v>
       </c>
       <c r="C3" t="n">
-        <v>50.976768</v>
+        <v>50.998726</v>
       </c>
       <c r="D3" t="n">
-        <v>1.604278975279116</v>
+        <v>2.031734056462705</v>
       </c>
       <c r="E3" t="n">
-        <v>518</v>
+        <v>758</v>
       </c>
     </row>
   </sheetData>

--- a/DistanceMatrix.xlsx
+++ b/DistanceMatrix.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -369,25 +369,35 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ردیف</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>نام ترمینال</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>کد ترمینال</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>کد شعبه</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Latitude</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Longitude</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>نسبت مانده</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
@@ -395,36 +405,52 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>365626</v>
-      </c>
-      <c r="B2" t="n">
-        <v>35.682298</v>
+        <v>21</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>فروشگاه درسا</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>50.964995</v>
+        <v>386350</v>
       </c>
       <c r="D2" t="n">
-        <v>1.379836036795883</v>
+        <v>950</v>
       </c>
       <c r="E2" t="n">
-        <v>165</v>
+        <v>35.686106</v>
+      </c>
+      <c r="F2" t="n">
+        <v>50.964656</v>
+      </c>
+      <c r="G2" t="n">
+        <v>168</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>388721</v>
-      </c>
-      <c r="B3" t="n">
-        <v>35.6872</v>
+        <v>22</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>مجتمع مسکونی گلسار</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>50.998726</v>
+        <v>365626</v>
       </c>
       <c r="D3" t="n">
-        <v>2.031734056462705</v>
+        <v>950</v>
       </c>
       <c r="E3" t="n">
-        <v>758</v>
+        <v>35.682298</v>
+      </c>
+      <c r="F3" t="n">
+        <v>50.964995</v>
+      </c>
+      <c r="G3" t="n">
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/DistanceMatrix.xlsx
+++ b/DistanceMatrix.xlsx
@@ -405,52 +405,52 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>فروشگاه درسا</t>
+          <t>تعاونی امیرکبیر</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>386350</v>
+        <v>224791</v>
       </c>
       <c r="D2" t="n">
         <v>950</v>
       </c>
       <c r="E2" t="n">
-        <v>35.686106</v>
+        <v>35.661671</v>
       </c>
       <c r="F2" t="n">
-        <v>50.964656</v>
+        <v>50.976896</v>
       </c>
       <c r="G2" t="n">
-        <v>168</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>مجتمع مسکونی گلسار</t>
+          <t>ساختمان پزشکی رضا</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>365626</v>
+        <v>387858</v>
       </c>
       <c r="D3" t="n">
         <v>950</v>
       </c>
       <c r="E3" t="n">
-        <v>35.682298</v>
+        <v>35.660454</v>
       </c>
       <c r="F3" t="n">
-        <v>50.964995</v>
+        <v>50.976768</v>
       </c>
       <c r="G3" t="n">
-        <v>286</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
